--- a/11-CollaborationList/QueenMary.xlsx
+++ b/11-CollaborationList/QueenMary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081AE69-FA2F-4C49-9653-E3498CF2B8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA197693-BC0F-CF4E-A8D4-948D29A87605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>P.R. Hobson</t>
   </si>
   <si>
-    <t>School of Physical and Chemical Sciences, Queen Mary University of London, Mile End, London, E1 4NS, UK</t>
+    <t>School of Physical and Chemical Sciences, Queen Mary University of London, Mile End Road, London, E1 4NS, UK</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
